--- a/reports_pdf/brasil/risk-pt/Cases/26-06-2020_brasil_report.xlsx
+++ b/reports_pdf/brasil/risk-pt/Cases/26-06-2020_brasil_report.xlsx
@@ -562,13 +562,13 @@
         <v>56422</v>
       </c>
       <c r="D6" t="n">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="E6" t="n">
         <v>1.560399829859634</v>
       </c>
       <c r="F6" t="n">
-        <v>1.2735972009297</v>
+        <v>1.273629831615597</v>
       </c>
       <c r="G6" t="n">
         <v>21757</v>
@@ -577,10 +577,10 @@
         <v>143.1004998684557</v>
       </c>
       <c r="I6" t="n">
-        <v>27709.65430062749</v>
+        <v>27710.36424646055</v>
       </c>
       <c r="J6" t="n">
-        <v>182.2523960841061</v>
+        <v>182.257065551569</v>
       </c>
     </row>
     <row r="7">
@@ -670,7 +670,7 @@
         <v>1.559469941822883</v>
       </c>
       <c r="F9" t="n">
-        <v>1.095987330926472</v>
+        <v>1.09603558948787</v>
       </c>
       <c r="G9" t="n">
         <v>16150</v>
@@ -679,10 +679,10 @@
         <v>410.941475826972</v>
       </c>
       <c r="I9" t="n">
-        <v>17700.19539446253</v>
+        <v>17700.97477022911</v>
       </c>
       <c r="J9" t="n">
-        <v>450.3866512585886</v>
+        <v>450.4064827030307</v>
       </c>
     </row>
     <row r="10">
@@ -695,28 +695,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21240</v>
+        <v>21449</v>
       </c>
       <c r="D10" t="n">
-        <v>863</v>
+        <v>1072</v>
       </c>
       <c r="E10" t="n">
-        <v>1.440821795444395</v>
+        <v>1.534167038856632</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9831784797535984</v>
+        <v>0.9965135145267753</v>
       </c>
       <c r="G10" t="n">
-        <v>13314</v>
+        <v>13523</v>
       </c>
       <c r="H10" t="n">
-        <v>201.3916200272273</v>
+        <v>204.5530176977764</v>
       </c>
       <c r="I10" t="n">
-        <v>13090.03827943941</v>
+        <v>13475.85225694558</v>
       </c>
       <c r="J10" t="n">
-        <v>198.0039068134837</v>
+        <v>203.8398465730689</v>
       </c>
     </row>
     <row r="11">
@@ -763,28 +763,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>13026</v>
+        <v>13406</v>
       </c>
       <c r="D12" t="n">
-        <v>425</v>
+        <v>805</v>
       </c>
       <c r="E12" t="n">
-        <v>1.247826086956522</v>
+        <v>1.483850931677019</v>
       </c>
       <c r="F12" t="n">
-        <v>1.283188898782523</v>
+        <v>1.316906733742594</v>
       </c>
       <c r="G12" t="n">
-        <v>7636</v>
+        <v>8016</v>
       </c>
       <c r="H12" t="n">
-        <v>233.8744257274119</v>
+        <v>245.5130168453292</v>
       </c>
       <c r="I12" t="n">
-        <v>9798.430431103348</v>
+        <v>10556.32437768064</v>
       </c>
       <c r="J12" t="n">
-        <v>300.1050668025528</v>
+        <v>323.3177451050731</v>
       </c>
     </row>
     <row r="13">
@@ -800,13 +800,13 @@
         <v>6913</v>
       </c>
       <c r="D13" t="n">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0.9820689655172414</v>
       </c>
       <c r="F13" t="n">
-        <v>1.150719541771614</v>
+        <v>1.208574459439616</v>
       </c>
       <c r="G13" t="n">
         <v>3678</v>
@@ -815,10 +815,10 @@
         <v>138.7400980761977</v>
       </c>
       <c r="I13" t="n">
-        <v>4232.346474635995</v>
+        <v>4445.136861818906</v>
       </c>
       <c r="J13" t="n">
-        <v>159.6509420835909</v>
+        <v>167.6777390350398</v>
       </c>
     </row>
     <row r="14">
@@ -933,28 +933,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>18464</v>
+        <v>18672</v>
       </c>
       <c r="D17" t="n">
-        <v>642</v>
+        <v>850</v>
       </c>
       <c r="E17" t="n">
-        <v>1.069205569205569</v>
+        <v>1.154381654381654</v>
       </c>
       <c r="F17" t="n">
-        <v>1.419153698895631</v>
+        <v>1.431321711063643</v>
       </c>
       <c r="G17" t="n">
-        <v>9646</v>
+        <v>9854</v>
       </c>
       <c r="H17" t="n">
-        <v>86.41046313714951</v>
+        <v>88.27376153363791</v>
       </c>
       <c r="I17" t="n">
-        <v>13689.15657954725</v>
+        <v>14104.24414082113</v>
       </c>
       <c r="J17" t="n">
-        <v>122.6297283843703</v>
+        <v>126.3481514003506</v>
       </c>
     </row>
     <row r="18">
@@ -1001,28 +1001,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>18023</v>
+        <v>18665</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9408067050811943</v>
+        <v>1.27710843373494</v>
       </c>
       <c r="F19" t="n">
-        <v>1.253742657379656</v>
+        <v>1.301785761473049</v>
       </c>
       <c r="G19" t="n">
-        <v>8198</v>
+        <v>8840</v>
       </c>
       <c r="H19" t="n">
-        <v>255.8676654182272</v>
+        <v>275.9051186017478</v>
       </c>
       <c r="I19" t="n">
-        <v>10278.18230519842</v>
+        <v>11507.78613142175</v>
       </c>
       <c r="J19" t="n">
-        <v>320.7922067789769</v>
+        <v>359.169354913288</v>
       </c>
     </row>
     <row r="20">
@@ -1069,28 +1069,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23730</v>
+        <v>23806</v>
       </c>
       <c r="D21" t="n">
-        <v>1065</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.481368044920878</v>
+        <v>0.5007656967840735</v>
       </c>
       <c r="F21" t="n">
-        <v>1.512789798045822</v>
+        <v>1.566454004269159</v>
       </c>
       <c r="G21" t="n">
-        <v>9941</v>
+        <v>10017</v>
       </c>
       <c r="H21" t="n">
-        <v>288.8146426496223</v>
+        <v>291.0226612434631</v>
       </c>
       <c r="I21" t="n">
-        <v>15038.64338237352</v>
+        <v>15691.16976076417</v>
       </c>
       <c r="J21" t="n">
-        <v>436.9158449265985</v>
+        <v>455.8736130378898</v>
       </c>
     </row>
     <row r="22">
@@ -1146,7 +1146,7 @@
         <v>2.013071895424837</v>
       </c>
       <c r="F23" t="n">
-        <v>1.465912073081915</v>
+        <v>1.38623969780269</v>
       </c>
       <c r="G23" t="n">
         <v>8047</v>
@@ -1155,10 +1155,10 @@
         <v>455.1470588235294</v>
       </c>
       <c r="I23" t="n">
-        <v>11796.19445209017</v>
+        <v>11155.07084821825</v>
       </c>
       <c r="J23" t="n">
-        <v>667.2055685571364</v>
+        <v>630.9429212793126</v>
       </c>
     </row>
     <row r="24">
@@ -1171,28 +1171,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>12911</v>
+        <v>13078</v>
       </c>
       <c r="D24" t="n">
-        <v>1039</v>
+        <v>167</v>
       </c>
       <c r="E24" t="n">
-        <v>3.9182156133829</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>3.40267560489141</v>
+        <v>3.626703253827718</v>
       </c>
       <c r="G24" t="n">
-        <v>6069</v>
+        <v>6236</v>
       </c>
       <c r="H24" t="n">
-        <v>1199.407114624506</v>
+        <v>1232.411067193676</v>
       </c>
       <c r="I24" t="n">
-        <v>20650.83824608596</v>
+        <v>22616.12149086965</v>
       </c>
       <c r="J24" t="n">
-        <v>4081.193329266001</v>
+        <v>4469.589227444594</v>
       </c>
     </row>
     <row r="25">
@@ -1310,13 +1310,13 @@
         <v>9681</v>
       </c>
       <c r="D28" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>1.119001919385797</v>
       </c>
       <c r="F28" t="n">
-        <v>1.170714849961722</v>
+        <v>1.233769037153841</v>
       </c>
       <c r="G28" t="n">
         <v>2750</v>
@@ -1325,10 +1325,10 @@
         <v>181.5181518151815</v>
       </c>
       <c r="I28" t="n">
-        <v>3219.465837394736</v>
+        <v>3392.864852173062</v>
       </c>
       <c r="J28" t="n">
-        <v>212.5059958676394</v>
+        <v>223.9514753909612</v>
       </c>
     </row>
     <row r="29">
@@ -1341,28 +1341,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1278831</v>
+        <v>1280513</v>
       </c>
       <c r="D29" t="n">
-        <v>44911</v>
+        <v>43766</v>
       </c>
       <c r="E29" t="n">
-        <v>1.20835111542192</v>
+        <v>1.22466537342386</v>
       </c>
       <c r="F29" t="n">
-        <v>1.142900067212459</v>
+        <v>1.14803143891098</v>
       </c>
       <c r="G29" t="n">
-        <v>448150</v>
+        <v>449832</v>
       </c>
       <c r="H29" t="n">
-        <v>219.1989200240647</v>
+        <v>220.0216190834878</v>
       </c>
       <c r="I29" t="n">
-        <v>512190.6651212636</v>
+        <v>516421.2782282039</v>
       </c>
       <c r="J29" t="n">
-        <v>250.522460428402</v>
+        <v>252.5917359479401</v>
       </c>
     </row>
   </sheetData>
